--- a/public/UserBulkUploadCsvTemplate/UserBulkUploadCsvTemplate.xlsx
+++ b/public/UserBulkUploadCsvTemplate/UserBulkUploadCsvTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akmal.alavi_rootcode\Documents\Skapp Enterprise\skapp-fe\public\UserBulkUploadCsvTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55B1742-5AAF-41F7-BC4F-C04201D05819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92089759-A1D1-4B12-A91E-C29D99DB4FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -239,9 +239,6 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>Primary Supervisor</t>
-  </si>
-  <si>
     <t>Probation Start Date</t>
   </si>
   <si>
@@ -3309,6 +3306,9 @@
   </si>
   <si>
     <t>WET - Western European Time</t>
+  </si>
+  <si>
+    <t>Primary Supervisor(Email)</t>
   </si>
 </sst>
 </file>
@@ -3591,8 +3591,8 @@
   </sheetPr>
   <dimension ref="A1:AT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3601,7 +3601,7 @@
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="17.88671875" customWidth="1"/>
     <col min="10" max="10" width="21.88671875" customWidth="1"/>
@@ -3643,88 +3643,88 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>31</v>
@@ -3736,37 +3736,37 @@
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3816,7 +3816,6 @@
       <c r="K3" s="4"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -34300,18 +34299,18 @@
     <row r="999" spans="2:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" spans="2:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that satisfies the formula: =LEN(P2)&lt;=50" sqref="P2:P997" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>LEN(P2)&lt;=50</formula1>
+  <dataValidations count="8">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that satisfies the formula: =LEN(P2)&lt;=50" sqref="Q1:Q1048576" xr:uid="{523DB6A3-9B88-4B08-BB38-23BE6959F913}">
+      <formula1>LEN(Q1)&lt;=50</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="R2:U997" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>IFERROR(ISURL(R2), TRUE)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="AK2:AL997" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="AK2:AK997" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(AK2))), AND(ISNUMBER(AK2), LEFT(CELL("format", AK2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="City name must be less than 50 characters" sqref="N2:N997" xr:uid="{00000000-0002-0000-0000-000008000000}">
-      <formula1>LEN(N2)&lt;=50</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="City name must be less than 50 characters" sqref="O1:O1048576" xr:uid="{0DB1AA7A-BC07-4ED4-919E-560E4C14CE30}">
+      <formula1>LEN(O1)&lt;=50</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Maximum character limit exceeded 30" sqref="B2:C997" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>LEN(B2)&lt;=30</formula1>
@@ -34319,14 +34318,11 @@
     <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid date" sqref="AG2:AG996" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(AG2))), AND(ISNUMBER(AG2), LEFT(CELL("format", AG2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Invalid phone number" sqref="K2:K997 AC2:AC997" xr:uid="{00000000-0002-0000-0000-000010000000}">
-      <formula1>AND(ISNUMBER(K2), LEN(K2)&gt;=4, LEN(K2)&lt;=14)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Invalid phone number" sqref="L1:L1048576 AD1:AD1048576" xr:uid="{00000000-0002-0000-0000-000010000000}">
+      <formula1>AND(ISNUMBER(L1), LEN(L1)&gt;=4, LEN(L1)&lt;=14)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="NIN must be less than 14 characters long" sqref="G2:G997" xr:uid="{00000000-0002-0000-0000-000011000000}">
-      <formula1>LEN(G2)&lt;=14</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:I996" xr:uid="{00000000-0002-0000-0000-000014000000}">
-      <formula1>IFERROR(ISEMAIL(I2), TRUE)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="NIN must be less than 14 characters long" sqref="H1:H1048576" xr:uid="{034ADFA8-51E6-4009-975E-C2BE6F6E02B4}">
+      <formula1>LEN(H1)&lt;=14</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34334,53 +34330,53 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{3D41E080-E602-4D8E-AF15-A1EE5236D1F4}">
           <x14:formula1>
             <xm:f>Resources!$A$2:$A$194</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O996</xm:sqref>
+          <xm:sqref>P1:P1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{338A2767-B098-4201-B49F-78D4AF179942}">
           <x14:formula1>
             <xm:f>Resources!$I$2:$I$240</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F997</xm:sqref>
+          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{2AF56124-A5F2-446A-A2A2-F5855AA3C244}">
           <x14:formula1>
             <xm:f>Resources!$Q$2:$Q$26</xm:f>
           </x14:formula1>
-          <xm:sqref>AS2:AS997</xm:sqref>
+          <xm:sqref>AR1:AR1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{296696CB-53C5-43F4-BB5A-255E504018F3}">
           <x14:formula1>
             <xm:f>Resources!$U$2:$U$9</xm:f>
           </x14:formula1>
-          <xm:sqref>V2:V997</xm:sqref>
+          <xm:sqref>W1:W1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>Resources!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D996</xm:sqref>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{026C21E1-09F4-40FD-9CCC-86D79F5BFE8B}">
           <x14:formula1>
             <xm:f>Resources!$G$2:$G$328</xm:f>
           </x14:formula1>
-          <xm:sqref>AM2:AM996</xm:sqref>
+          <xm:sqref>AL1:AL1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
           <x14:formula1>
             <xm:f>Resources!$W$2:$W$200</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J997 AB2:AB997</xm:sqref>
+          <xm:sqref>K1:K1048576 AC1:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{86BE83ED-2D78-48FA-BD6B-A663B1C99B60}">
           <x14:formula1>
             <xm:f>Resources!$K$2:$K$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H997</xm:sqref>
+          <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>
@@ -34388,23 +34384,23 @@
           </x14:formula1>
           <xm:sqref>AF2:AF997</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000F000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{510708EB-443D-43E9-9727-29312EFF4802}">
           <x14:formula1>
             <xm:f>Resources!$M$2:$M$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AA2:AA997</xm:sqref>
+          <xm:sqref>AB1:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000012000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{41B89B7E-6903-4C6F-9DB7-BA696D850F66}">
           <x14:formula1>
             <xm:f>Resources!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AN2:AN996</xm:sqref>
+          <xm:sqref>AM1:AM1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000013000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{6EE33355-3E26-49E5-ADB9-651122A7EEB7}">
           <x14:formula1>
             <xm:f>Resources!$S$2:$S$11</xm:f>
           </x14:formula1>
-          <xm:sqref>AT2:AT997</xm:sqref>
+          <xm:sqref>AS1:AS1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -34437,3742 +34433,3742 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="W12" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="W13" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="W15" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="W16" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="W17" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="W18" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="W19" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="W20" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="W21" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="W22" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="W23" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="W24" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="W25" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="W26" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="W27" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="W28" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="W29" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="W30" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="W31" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="W32" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="W33" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="W34" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="W35" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="W36" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="W37" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="W38" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="W39" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="W40" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="W41" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="W42" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="W43" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="W44" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="W45" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="W46" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="W47" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="I48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W48" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="W49" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="W50" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="W51" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="W52" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="W53" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="W54" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="W55" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="W55" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="W56" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="I57" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="W57" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="W58" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="W59" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="W59" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="W60" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="W61" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="W61" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="I62" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="W62" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="W62" s="2" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="W63" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="W63" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="W64" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="W64" s="2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="W65" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="W65" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="W66" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="W66" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="W67" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="W67" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="W68" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="W68" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="W69" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="W69" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="W70" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="W70" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="W71" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="W71" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="W72" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="W73" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="W74" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="W74" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="W75" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="W75" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="I76" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="W76" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="W76" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="W77" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="W77" s="2" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="W78" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="W78" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="W79" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="W79" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="W80" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="W80" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="W81" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="W81" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="W82" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="W82" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="W83" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="W83" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="W84" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="W84" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="I85" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="W85" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="W85" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="W86" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="W86" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="W87" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="W87" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="W88" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="W88" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="W89" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="W89" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="I90" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="W90" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="W90" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="W91" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="W91" s="2" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="W92" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="W92" s="2" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="W93" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="W93" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="W94" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="W94" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="W95" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="W95" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="W96" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="W96" s="2" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="W97" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="W97" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="W98" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="W98" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="I99" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="W99" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="W99" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="I100" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="W100" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="W100" s="2" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="I101" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="W101" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="W101" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="I102" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W102" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="W102" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="I103" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="W103" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="W103" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="I104" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="W104" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="W104" s="2" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="I105" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="W105" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="W105" s="2" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="I106" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="W106" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="W106" s="2" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="I107" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="W107" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="W107" s="2" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="I108" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="W108" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="W108" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="I109" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="W109" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="W109" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="I110" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="W110" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="W110" s="2" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="I111" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W111" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="W111" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="I112" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="W112" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="W112" s="2" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="I113" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="W113" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="W113" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="I114" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="W114" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="W114" s="2" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="I115" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="W115" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="W115" s="2" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="I116" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="W116" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="W116" s="2" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="I117" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="W117" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="W117" s="2" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="W118" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="W118" s="2" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="W119" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="W119" s="2" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="W120" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="W120" s="2" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="I121" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="W121" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="W121" s="2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="I122" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="W122" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="W122" s="2" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="I123" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="W123" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="W123" s="2" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="W124" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="W124" s="2" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="W125" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="W125" s="2" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="I126" s="2" t="s">
+      <c r="W126" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="W126" s="2" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="W127" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="W127" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="I128" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="W128" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="W128" s="2" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="I129" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="I129" s="2" t="s">
+      <c r="W129" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="W129" s="2" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="W130" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="W130" s="2" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="W131" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="W131" s="2" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="I132" s="2" t="s">
+      <c r="W132" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="W132" s="2" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="I133" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="I133" s="2" t="s">
+      <c r="W133" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="W133" s="2" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="I134" s="2" t="s">
+      <c r="W134" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="W134" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="I135" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="I135" s="2" t="s">
+      <c r="W135" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="W135" s="2" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="I136" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="W136" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="W136" s="2" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="I137" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="I137" s="2" t="s">
+      <c r="W137" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="W137" s="2" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="I138" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="I138" s="2" t="s">
+      <c r="W138" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="W138" s="2" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="I139" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="I139" s="2" t="s">
+      <c r="W139" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="W139" s="2" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="I140" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="I140" s="2" t="s">
+      <c r="W140" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="W140" s="2" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="I141" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="W141" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="W141" s="2" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="I142" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="W142" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="W142" s="2" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="I143" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="I143" s="2" t="s">
+      <c r="W143" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="W143" s="2" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="G144" s="2" t="s">
+      <c r="I144" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="I144" s="2" t="s">
+      <c r="W144" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="W144" s="2" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="G145" s="2" t="s">
+      <c r="I145" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="I145" s="2" t="s">
+      <c r="W145" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="W145" s="2" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="I146" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="I146" s="2" t="s">
+      <c r="W146" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="W146" s="2" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="I147" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="I147" s="2" t="s">
+      <c r="W147" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="W147" s="2" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="G148" s="2" t="s">
+      <c r="I148" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="I148" s="2" t="s">
+      <c r="W148" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="W148" s="2" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="I149" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="I149" s="2" t="s">
+      <c r="W149" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="W149" s="2" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="G150" s="2" t="s">
+      <c r="I150" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="I150" s="2" t="s">
+      <c r="W150" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="W150" s="2" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="I151" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="I151" s="2" t="s">
+      <c r="W151" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="W151" s="2" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="G152" s="2" t="s">
+      <c r="I152" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="I152" s="2" t="s">
+      <c r="W152" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="W152" s="2" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="I153" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="I153" s="2" t="s">
+      <c r="W153" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="W153" s="2" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="I154" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="I154" s="2" t="s">
+      <c r="W154" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="W154" s="2" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="G155" s="2" t="s">
+      <c r="I155" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="I155" s="2" t="s">
+      <c r="W155" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="W155" s="2" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="G156" s="2" t="s">
+      <c r="I156" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="I156" s="2" t="s">
+      <c r="W156" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="W156" s="2" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="I157" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="I157" s="2" t="s">
+      <c r="W157" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="W157" s="2" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="G158" s="2" t="s">
+      <c r="I158" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="I158" s="2" t="s">
+      <c r="W158" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="W158" s="2" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="I159" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="I159" s="2" t="s">
+      <c r="W159" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="W159" s="2" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="I160" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="I160" s="2" t="s">
+      <c r="W160" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="W160" s="2" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="I161" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="I161" s="2" t="s">
+      <c r="W161" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="W161" s="2" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="I162" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="I162" s="2" t="s">
+      <c r="W162" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="W162" s="2" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="I163" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="I163" s="2" t="s">
+      <c r="W163" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="W163" s="2" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="I164" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="I164" s="2" t="s">
+      <c r="W164" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="W164" s="2" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="G165" s="2" t="s">
+      <c r="I165" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="I165" s="2" t="s">
+      <c r="W165" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="W165" s="2" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="G166" s="2" t="s">
+      <c r="I166" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="I166" s="2" t="s">
+      <c r="W166" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="W166" s="2" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="G167" s="2" t="s">
+      <c r="I167" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="I167" s="2" t="s">
+      <c r="W167" s="2" t="s">
         <v>764</v>
-      </c>
-      <c r="W167" s="2" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="G168" s="2" t="s">
+      <c r="I168" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="I168" s="2" t="s">
+      <c r="W168" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="W168" s="2" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="G169" s="2" t="s">
+      <c r="I169" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="I169" s="2" t="s">
+      <c r="W169" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="W169" s="2" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="G170" s="2" t="s">
+      <c r="I170" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="I170" s="2" t="s">
+      <c r="W170" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="W170" s="2" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="I171" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="I171" s="2" t="s">
+      <c r="W171" s="2" t="s">
         <v>780</v>
-      </c>
-      <c r="W171" s="2" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="G172" s="2" t="s">
+      <c r="I172" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="I172" s="2" t="s">
+      <c r="W172" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="W172" s="2" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="I173" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="I173" s="2" t="s">
+      <c r="W173" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="W173" s="2" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="G174" s="2" t="s">
+      <c r="I174" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="I174" s="2" t="s">
+      <c r="W174" s="2" t="s">
         <v>792</v>
-      </c>
-      <c r="W174" s="2" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="G175" s="2" t="s">
+      <c r="I175" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="I175" s="2" t="s">
+      <c r="W175" s="2" t="s">
         <v>796</v>
-      </c>
-      <c r="W175" s="2" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="G176" s="2" t="s">
+      <c r="I176" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="W176" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="W176" s="2" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="G177" s="2" t="s">
+      <c r="I177" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="I177" s="2" t="s">
+      <c r="W177" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="W177" s="2" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="G178" s="2" t="s">
+      <c r="I178" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="I178" s="2" t="s">
+      <c r="W178" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="W178" s="2" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="G179" s="2" t="s">
+      <c r="I179" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="I179" s="2" t="s">
+      <c r="W179" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="W179" s="2" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="G180" s="2" t="s">
+      <c r="I180" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="I180" s="2" t="s">
+      <c r="W180" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="W180" s="2" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="G181" s="2" t="s">
+      <c r="I181" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="I181" s="2" t="s">
+      <c r="W181" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="W181" s="2" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="G182" s="2" t="s">
+      <c r="I182" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="I182" s="2" t="s">
+      <c r="W182" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="W182" s="2" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="G183" s="2" t="s">
+      <c r="I183" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="I183" s="2" t="s">
+      <c r="W183" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="W183" s="2" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="G184" s="2" t="s">
+      <c r="I184" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="I184" s="2" t="s">
+      <c r="W184" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="W184" s="2" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="G185" s="2" t="s">
+      <c r="I185" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="I185" s="2" t="s">
+      <c r="W185" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="W185" s="2" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="G186" s="2" t="s">
+      <c r="I186" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="I186" s="2" t="s">
+      <c r="W186" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="W186" s="2" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="G187" s="2" t="s">
+      <c r="I187" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="I187" s="2" t="s">
+      <c r="W187" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="W187" s="2" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="G188" s="2" t="s">
+      <c r="I188" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="I188" s="2" t="s">
+      <c r="W188" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="W188" s="2" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="G189" s="2" t="s">
+      <c r="I189" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="I189" s="2" t="s">
+      <c r="W189" s="2" t="s">
         <v>851</v>
-      </c>
-      <c r="W189" s="2" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="G190" s="2" t="s">
+      <c r="I190" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="I190" s="2" t="s">
+      <c r="W190" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="W190" s="2" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="G191" s="2" t="s">
+      <c r="I191" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="I191" s="2" t="s">
+      <c r="W191" s="2" t="s">
         <v>859</v>
-      </c>
-      <c r="W191" s="2" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="G192" s="2" t="s">
+      <c r="I192" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="I192" s="2" t="s">
+      <c r="W192" s="2" t="s">
         <v>863</v>
-      </c>
-      <c r="W192" s="2" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="G193" s="2" t="s">
+      <c r="I193" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="I193" s="2" t="s">
+      <c r="W193" s="2" t="s">
         <v>867</v>
-      </c>
-      <c r="W193" s="2" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="G194" s="2" t="s">
+      <c r="I194" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="I194" s="2" t="s">
+      <c r="W194" s="2" t="s">
         <v>871</v>
-      </c>
-      <c r="W194" s="2" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G195" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="I195" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="I195" s="2" t="s">
+      <c r="W195" s="2" t="s">
         <v>874</v>
-      </c>
-      <c r="W195" s="2" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G196" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="I196" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="I196" s="2" t="s">
+      <c r="W196" s="2" t="s">
         <v>877</v>
-      </c>
-      <c r="W196" s="2" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G197" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="I197" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="I197" s="2" t="s">
+      <c r="W197" s="2" t="s">
         <v>880</v>
-      </c>
-      <c r="W197" s="2" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G198" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="I198" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="I198" s="2" t="s">
+      <c r="W198" s="2" t="s">
         <v>883</v>
-      </c>
-      <c r="W198" s="2" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G199" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="I199" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="I199" s="2" t="s">
+      <c r="W199" s="2" t="s">
         <v>886</v>
-      </c>
-      <c r="W199" s="2" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G200" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="I200" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="I200" s="2" t="s">
+      <c r="W200" s="2" t="s">
         <v>889</v>
-      </c>
-      <c r="W200" s="2" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G201" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="I201" s="2" t="s">
         <v>891</v>
-      </c>
-      <c r="I201" s="2" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="202" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G202" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="I202" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="I202" s="2" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G203" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="I203" s="2" t="s">
         <v>895</v>
-      </c>
-      <c r="I203" s="2" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="204" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G204" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="I204" s="2" t="s">
         <v>897</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G205" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="I205" s="2" t="s">
         <v>899</v>
-      </c>
-      <c r="I205" s="2" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="206" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G206" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="I206" s="2" t="s">
         <v>901</v>
-      </c>
-      <c r="I206" s="2" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="207" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G207" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="I207" s="2" t="s">
         <v>903</v>
-      </c>
-      <c r="I207" s="2" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="208" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G208" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="I208" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="I208" s="2" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="209" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G209" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="I209" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="I209" s="2" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="210" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G210" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="I210" s="2" t="s">
         <v>909</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="211" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G211" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="I211" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="I211" s="2" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="212" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G212" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="I212" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="I212" s="2" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="213" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G213" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="I213" s="2" t="s">
         <v>915</v>
-      </c>
-      <c r="I213" s="2" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="214" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G214" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="I214" s="2" t="s">
         <v>917</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="215" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G215" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="I215" s="2" t="s">
         <v>919</v>
-      </c>
-      <c r="I215" s="2" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="216" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G216" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="I216" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="I216" s="2" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="217" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G217" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="I217" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="I217" s="2" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="218" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G218" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="I218" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="I218" s="2" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="219" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G219" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="I219" s="2" t="s">
         <v>927</v>
-      </c>
-      <c r="I219" s="2" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="220" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G220" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="I220" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="I220" s="2" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="221" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G221" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="I221" s="2" t="s">
         <v>931</v>
-      </c>
-      <c r="I221" s="2" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="222" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G222" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="I222" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="I222" s="2" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="223" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G223" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="I223" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="I223" s="2" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="224" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G224" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="I224" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="I224" s="2" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="225" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G225" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="I225" s="2" t="s">
         <v>939</v>
-      </c>
-      <c r="I225" s="2" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="226" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G226" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="I226" s="2" t="s">
         <v>941</v>
-      </c>
-      <c r="I226" s="2" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="227" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G227" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="I227" s="2" t="s">
         <v>943</v>
-      </c>
-      <c r="I227" s="2" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="228" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G228" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="I228" s="2" t="s">
         <v>945</v>
-      </c>
-      <c r="I228" s="2" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="229" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G229" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="I229" s="2" t="s">
         <v>947</v>
-      </c>
-      <c r="I229" s="2" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="230" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G230" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="I230" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="I230" s="2" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="231" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G231" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="I231" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="I231" s="2" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="232" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G232" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="I232" s="2" t="s">
         <v>953</v>
-      </c>
-      <c r="I232" s="2" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="233" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G233" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="I233" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="I233" s="2" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="234" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G234" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="I234" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="I234" s="2" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="235" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G235" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="236" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G236" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="I236" s="2" t="s">
         <v>960</v>
-      </c>
-      <c r="I236" s="2" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="237" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G237" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="I237" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="I237" s="2" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="238" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G238" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="I238" s="2" t="s">
         <v>964</v>
-      </c>
-      <c r="I238" s="2" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="239" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G239" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="I239" s="2" t="s">
         <v>966</v>
-      </c>
-      <c r="I239" s="2" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="240" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G240" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="I240" s="2" t="s">
         <v>968</v>
-      </c>
-      <c r="I240" s="2" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="241" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G241" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="242" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G242" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="243" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G243" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="244" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G244" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="245" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G245" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="246" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G246" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="247" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G247" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="248" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G248" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="249" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G249" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="250" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G250" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="251" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G251" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="252" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G252" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="253" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G253" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="254" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G254" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="255" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G255" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="256" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G256" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="257" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G257" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="258" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G258" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="259" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G259" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="260" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G260" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="261" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G261" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="262" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G262" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="263" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G263" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="264" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G264" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="265" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G265" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="266" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G266" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="267" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G267" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="268" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G268" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="269" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G269" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="270" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G270" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="271" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G271" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="272" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G272" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="273" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G273" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="274" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G274" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="275" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G275" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="276" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G276" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="277" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G277" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="278" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G278" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="279" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G279" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="280" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G280" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="281" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G281" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="282" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G282" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="283" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G283" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="284" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G284" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="285" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G285" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="286" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G286" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="287" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G287" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="288" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G288" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="289" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G289" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="290" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G290" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="291" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G291" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="292" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G292" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="293" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G293" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="294" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G294" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="295" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G295" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="296" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G296" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="297" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G297" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="298" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G298" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="299" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G299" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="300" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G300" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="301" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G301" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="302" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G302" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="303" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G303" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="304" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G304" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="305" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G305" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="306" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G306" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="307" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G307" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="308" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G308" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="309" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G309" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="310" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G310" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="311" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G311" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="312" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G312" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="313" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G313" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="314" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G314" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="315" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G315" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="316" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G316" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="317" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G317" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="318" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G318" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="319" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G319" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="320" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G320" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="321" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G321" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="322" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G322" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="323" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G323" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="324" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G324" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="325" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G325" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="326" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G326" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="327" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G327" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="328" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G328" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="329" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
